--- a/Recycling/Met_rec_tech/metrec_tech_Min_hist_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_hist_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.918247293851079E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0003209882849824879</v>
+      </c>
+      <c r="E7">
         <v>21.84588010820449</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.115924051458251E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0003209882849824879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.164338434963778</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.024000724196968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221936.5731742606</v>
+      </c>
+      <c r="E7">
         <v>1387526.094459183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50835.54232155453</v>
-      </c>
-      <c r="F7">
-        <v>221936.5731742606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73952.15726224132</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.322246415149442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>208129.6898010013</v>
+      </c>
+      <c r="E7">
         <v>1386281.338714166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46389.62287275127</v>
-      </c>
-      <c r="F7">
-        <v>208129.6898010013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73885.81445760783</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.006968156990193E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003288043635983164</v>
+      </c>
+      <c r="E7">
         <v>42.32696022505758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.805676176574201E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003288043635983164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.255935965093429</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.174679198309173E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02895482296347286</v>
+      </c>
+      <c r="E7">
         <v>85.95500251275547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0003911928431924245</v>
-      </c>
-      <c r="F7">
-        <v>0.02895482296347286</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.581216806432201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.460919073370131E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1829365640714891</v>
+      </c>
+      <c r="E7">
         <v>147.8811423362992</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002826186688436924</v>
-      </c>
-      <c r="F7">
-        <v>0.1829365640714891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.881746900361162</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.995858347586028E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.094438012409118</v>
+      </c>
+      <c r="E7">
         <v>277.6716586443686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01898006855343767</v>
-      </c>
-      <c r="F7">
-        <v>1.094438012409118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14.79930233336582</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.66400170378574E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.50261232786011</v>
+      </c>
+      <c r="E7">
         <v>493.1208834141382</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1054217614672567</v>
-      </c>
-      <c r="F7">
-        <v>5.50261232786011</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26.2822827369972</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.749661421282338E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>20.48087328570003</v>
+      </c>
+      <c r="E7">
         <v>711.3438213617573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4276204734167712</v>
-      </c>
-      <c r="F7">
-        <v>20.48087328570003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37.91309608874234</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002914030632468783</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82.05481960196587</v>
+      </c>
+      <c r="E7">
         <v>1185.420669936339</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.846165430873618</v>
-      </c>
-      <c r="F7">
-        <v>82.05481960196587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63.18037271883716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001163380006089614</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>306.6299206616246</v>
+      </c>
+      <c r="E7">
         <v>1947.697252028886</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.370519466339868</v>
-      </c>
-      <c r="F7">
-        <v>306.6299206616246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>103.8080754347302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.004344636291305961</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1076.638900480114</v>
+      </c>
+      <c r="E7">
         <v>3158.078066774547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27.52516477128676</v>
-      </c>
-      <c r="F7">
-        <v>1076.638900480114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>168.3187702005533</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0134847375852272</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3129.087413847302</v>
+      </c>
+      <c r="E7">
         <v>4479.952103535756</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85.43169072027706</v>
-      </c>
-      <c r="F7">
-        <v>3129.087413847302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>238.7718139579328</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.04089685910410115</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8682.091836015145</v>
+      </c>
+      <c r="E7">
         <v>6614.742693957812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>259.0994297315759</v>
-      </c>
-      <c r="F7">
-        <v>8682.091836015145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>352.5515620255747</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1100332321798573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>20086.1820809391</v>
+      </c>
+      <c r="E7">
         <v>9608.70000324287</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>697.108490330598</v>
-      </c>
-      <c r="F7">
-        <v>20086.1820809391</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>512.1230487578543</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2031812030004145</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28724.64468704079</v>
+      </c>
+      <c r="E7">
         <v>11660.35807657571</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1287.241489513403</v>
-      </c>
-      <c r="F7">
-        <v>28724.64468704079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>621.4720124229993</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2933561019771155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32277.2392001755</v>
+      </c>
+      <c r="E7">
         <v>15886.20333316785</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1858.538782576741</v>
-      </c>
-      <c r="F7">
-        <v>32277.2392001755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>846.7004778402248</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.236098004874647</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30438.70870878149</v>
+      </c>
+      <c r="E7">
         <v>20547.33388170411</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1495.783778115358</v>
-      </c>
-      <c r="F7">
-        <v>30438.70870878149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1095.12871333193</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1266038166412038</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31135.49330445451</v>
+      </c>
+      <c r="E7">
         <v>25939.58123210623</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>802.0903661593761</v>
-      </c>
-      <c r="F7">
-        <v>31135.49330445451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1382.52390225576</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1327399145478794</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33034.45460314881</v>
+      </c>
+      <c r="E7">
         <v>31999.28967238944</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>840.9652211781895</v>
-      </c>
-      <c r="F7">
-        <v>33034.45460314881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1705.493332040662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2198089425818774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35078.65743742448</v>
+      </c>
+      <c r="E7">
         <v>38617.13167820042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1392.585467942549</v>
-      </c>
-      <c r="F7">
-        <v>35078.65743742448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2058.210080723617</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3110185558910562</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36434.10748290794</v>
+      </c>
+      <c r="E7">
         <v>45651.20296722739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1970.438127343375</v>
-      </c>
-      <c r="F7">
-        <v>36434.10748290794</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2433.110955191633</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003878389078996612</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.067097982801606E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4408833987498307</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38435.67968633088</v>
+      </c>
+      <c r="E7">
         <v>52965.53170975723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2793.188516101591</v>
-      </c>
-      <c r="F7">
-        <v>38435.67968633088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2822.948949298785</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5848541663721626</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41169.97952505852</v>
+      </c>
+      <c r="E7">
         <v>60484.06218215645</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3705.306087135859</v>
-      </c>
-      <c r="F7">
-        <v>41169.97952505852</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3223.670456516665</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6696859718302154</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40597.08515329135</v>
+      </c>
+      <c r="E7">
         <v>68256.96347258132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4242.752553656252</v>
-      </c>
-      <c r="F7">
-        <v>40597.08515329135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3637.949381366311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.8533824562426108</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40578.11403409046</v>
+      </c>
+      <c r="E7">
         <v>76538.36381410064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5406.549857351244</v>
-      </c>
-      <c r="F7">
-        <v>40578.11403409046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4079.330212222917</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.406100252476864</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41268.76186376956</v>
+      </c>
+      <c r="E7">
         <v>85868.4952441823</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8908.25803113194</v>
-      </c>
-      <c r="F7">
-        <v>41268.76186376956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4576.606155032277</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.200151423610375</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41611.36560160635</v>
+      </c>
+      <c r="E7">
         <v>97146.67150557382</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13938.91833427857</v>
-      </c>
-      <c r="F7">
-        <v>41611.36560160635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5177.708698504648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.094311110720741</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43740.68951287131</v>
+      </c>
+      <c r="E7">
         <v>111677.3193625062</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19603.80972433713</v>
-      </c>
-      <c r="F7">
-        <v>43740.68951287131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5952.160984288108</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.774130606250516</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44988.35955916642</v>
+      </c>
+      <c r="E7">
         <v>131168.2902117668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23910.7625679238</v>
-      </c>
-      <c r="F7">
-        <v>44988.35955916642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6990.98781946925</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.411460981779843</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43925.32223811914</v>
+      </c>
+      <c r="E7">
         <v>157663.0833275299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21613.09240596525</v>
-      </c>
-      <c r="F7">
-        <v>43925.32223811914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8403.103321261784</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.14869668634376</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41200.63245161819</v>
+      </c>
+      <c r="E7">
         <v>193390.1257468214</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19948.36605306836</v>
-      </c>
-      <c r="F7">
-        <v>41200.63245161819</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10307.27785899256</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01338069812124432</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0007131624375875451</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.031469494226414</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40603.372641692</v>
+      </c>
+      <c r="E7">
         <v>240525.2623678058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19205.68069062222</v>
-      </c>
-      <c r="F7">
-        <v>40603.372641692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12819.47928705357</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.736018642368894</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47856.16647262606</v>
+      </c>
+      <c r="E7">
         <v>300904.6570656776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17333.87075443288</v>
-      </c>
-      <c r="F7">
-        <v>47856.16647262606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16037.57119172247</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.414620726840423</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64262.27136772933</v>
+      </c>
+      <c r="E7">
         <v>375725.7033728214</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15297.67485933067</v>
-      </c>
-      <c r="F7">
-        <v>64262.27136772933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>20025.37207354157</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.313371815218778</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94984.55117031402</v>
+      </c>
+      <c r="E7">
         <v>465269.2401655086</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14656.21886890034</v>
-      </c>
-      <c r="F7">
-        <v>94984.55117031402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24797.85004073334</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.272054112572468</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140374.4991667271</v>
+      </c>
+      <c r="E7">
         <v>568671.2106469953</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20729.88912083393</v>
-      </c>
-      <c r="F7">
-        <v>140374.4991667271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30308.95272399714</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.84104585538021</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>192856.7294636374</v>
+      </c>
+      <c r="E7">
         <v>683766.5144439256</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30670.13574907122</v>
-      </c>
-      <c r="F7">
-        <v>192856.7294636374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36443.28492900953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.556781477755353</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>252544.0245207147</v>
+      </c>
+      <c r="E7">
         <v>807031.6527848785</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41540.06882133914</v>
-      </c>
-      <c r="F7">
-        <v>252544.0245207147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43013.05174776988</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.297093114932725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>349294.6194415211</v>
+      </c>
+      <c r="E7">
         <v>933654.4742983773</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58901.13756923861</v>
-      </c>
-      <c r="F7">
-        <v>349294.6194415211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49761.77585966112</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.40045339224752</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>457306.7286136562</v>
+      </c>
+      <c r="E7">
         <v>1057760.008652618</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78562.27770856184</v>
-      </c>
-      <c r="F7">
-        <v>457306.7286136562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56376.33397884129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.56192119164031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496298.517068413</v>
+      </c>
+      <c r="E7">
         <v>1172811.933290783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85920.68251192931</v>
-      </c>
-      <c r="F7">
-        <v>496298.517068413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62508.35416796894</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1038819836804414</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.005536686354604324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.63859035128102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496629.7016517984</v>
+      </c>
+      <c r="E7">
         <v>1272181.884376349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86406.4150590264</v>
-      </c>
-      <c r="F7">
-        <v>496629.7016517984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67804.55888740899</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.56120870310871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>490679.3686128522</v>
+      </c>
+      <c r="E7">
         <v>1349836.63314003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85916.16858650143</v>
-      </c>
-      <c r="F7">
-        <v>490679.3686128522</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71943.39001690203</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.30050055074201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476657.9385273799</v>
+      </c>
+      <c r="E7">
         <v>1401049.205343028</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84264.46879624025</v>
-      </c>
-      <c r="F7">
-        <v>476657.9385273799</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74672.90999384789</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.02514847094774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>458565.274061473</v>
+      </c>
+      <c r="E7">
         <v>1423012.443803445</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82519.99334230638</v>
-      </c>
-      <c r="F7">
-        <v>458565.274061473</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75843.50337663105</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.06937449511321</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445736.7599446046</v>
+      </c>
+      <c r="E7">
         <v>1415237.32995512</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82800.18448391458</v>
-      </c>
-      <c r="F7">
-        <v>445736.7599446046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75429.10652720297</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.04879321431105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>424446.2989944043</v>
+      </c>
+      <c r="E7">
         <v>1379657.948914537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82669.79309846823</v>
-      </c>
-      <c r="F7">
-        <v>424446.2989944043</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73532.80202344368</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.12428348697794</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>369832.1968168818</v>
+      </c>
+      <c r="E7">
         <v>1320430.043193467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76812.62097374431</v>
-      </c>
-      <c r="F7">
-        <v>369832.1968168818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70376.08200521229</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.517617041871434</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>262041.3797064034</v>
+      </c>
+      <c r="E7">
         <v>1243477.859360796</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60298.25277474978</v>
-      </c>
-      <c r="F7">
-        <v>262041.3797064034</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66274.69607582931</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.186330026174895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140567.9358673111</v>
+      </c>
+      <c r="E7">
         <v>1155888.927182755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39193.09739247198</v>
-      </c>
-      <c r="F7">
-        <v>140567.9358673111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61606.39433164702</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.750106794944696</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96038.66278450459</v>
+      </c>
+      <c r="E7">
         <v>1065260.338220175</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30093.99716006149</v>
-      </c>
-      <c r="F7">
-        <v>96038.66278450459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56776.08541696816</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.785195776158428E-16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.426394769389394E-10</v>
+      </c>
+      <c r="E7">
         <v>0.4267143564461587</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.130999342478803E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.426394769389394E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.02274295764236579</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.394287372621252</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>93233.83083885923</v>
+      </c>
+      <c r="E7">
         <v>979064.4705980697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27839.72601477008</v>
-      </c>
-      <c r="F7">
-        <v>93233.83083885923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52182.03101813552</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.995344764475467</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>93107.10651134663</v>
+      </c>
+      <c r="E7">
         <v>904060.4168646783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25312.2506895113</v>
-      </c>
-      <c r="F7">
-        <v>93107.10651134663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48184.47623401498</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.451930679570294</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94715.08998387938</v>
+      </c>
+      <c r="E7">
         <v>845759.1685310694</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21869.48558257142</v>
-      </c>
-      <c r="F7">
-        <v>94715.08998387938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45077.14506196052</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.102695119958257</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105910.9620223684</v>
+      </c>
+      <c r="E7">
         <v>807968.6412562209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19656.92607752149</v>
-      </c>
-      <c r="F7">
-        <v>105910.9620223684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43062.99121850295</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.565694800607191</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>140178.4204681707</v>
+      </c>
+      <c r="E7">
         <v>792482.4063609391</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22590.23088013922</v>
-      </c>
-      <c r="F7">
-        <v>140178.4204681707</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42237.60819835712</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.8318885064266</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>191934.364310416</v>
+      </c>
+      <c r="E7">
         <v>798995.0175699946</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30612.1199516797</v>
-      </c>
-      <c r="F7">
-        <v>191934.364310416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42584.71637184888</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.612841430264631</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>254966.1886117334</v>
+      </c>
+      <c r="E7">
         <v>825296.4471427413</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41895.2330575207</v>
-      </c>
-      <c r="F7">
-        <v>254966.1886117334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43986.52601258481</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.743518529583197</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>329161.4210048355</v>
+      </c>
+      <c r="E7">
         <v>867721.1190880758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55394.00126293058</v>
-      </c>
-      <c r="F7">
-        <v>329161.4210048355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46247.66980226123</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.97984709035168</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406961.6177702569</v>
+      </c>
+      <c r="E7">
         <v>921744.1426389358</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69562.11753104383</v>
-      </c>
-      <c r="F7">
-        <v>406961.6177702569</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49126.98079278509</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.70170047216237</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>465882.437570497</v>
+      </c>
+      <c r="E7">
         <v>982577.6448811449</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80470.80927612203</v>
-      </c>
-      <c r="F7">
-        <v>465882.437570497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52369.27565310788</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.907822386065532E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.199017696349777E-08</v>
+      </c>
+      <c r="E7">
         <v>1.36291795196684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.208688645258686E-10</v>
-      </c>
-      <c r="F7">
-        <v>2.199017696349777E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.07264059618184618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.46474560378749</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>490162.5474431649</v>
+      </c>
+      <c r="E7">
         <v>1045646.475167911</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85305.03280317273</v>
-      </c>
-      <c r="F7">
-        <v>490162.5474431649</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55730.70869161982</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.56301661673662</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>489920.0189071845</v>
+      </c>
+      <c r="E7">
         <v>1106895.47280538</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85927.62250741999</v>
-      </c>
-      <c r="F7">
-        <v>489920.0189071845</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58995.1485630777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.42290185146469</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>479434.4028597682</v>
+      </c>
+      <c r="E7">
         <v>1162951.984112802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85039.93439214148</v>
-      </c>
-      <c r="F7">
-        <v>479434.4028597682</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61982.84007845409</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.21140995996292</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>463473.1920617507</v>
+      </c>
+      <c r="E7">
         <v>1211199.724708653</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83700.04106826847</v>
-      </c>
-      <c r="F7">
-        <v>463473.1920617507</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64554.34090596314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.97691990229868</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442703.2619291929</v>
+      </c>
+      <c r="E7">
         <v>1249808.979533843</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82214.44433664964</v>
-      </c>
-      <c r="F7">
-        <v>442703.2619291929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66612.13116735875</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.6123731571078</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413504.2837933</v>
+      </c>
+      <c r="E7">
         <v>1277738.733102263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79904.88179667479</v>
-      </c>
-      <c r="F7">
-        <v>413504.2837933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68100.7269757082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.8090052479161</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>367445.9542567363</v>
+      </c>
+      <c r="E7">
         <v>1294707.206687903</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74815.19589668004</v>
-      </c>
-      <c r="F7">
-        <v>367445.9542567363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69005.11013081897</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.38390430531935</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302488.737503361</v>
+      </c>
+      <c r="E7">
         <v>1301127.17837971</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65786.56021106764</v>
-      </c>
-      <c r="F7">
-        <v>302488.737503361</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69347.28081724246</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.684073457589289</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>234994.0897758088</v>
+      </c>
+      <c r="E7">
         <v>1298012.653503615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55017.39081921</v>
-      </c>
-      <c r="F7">
-        <v>234994.0897758088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69181.2833384535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.325497681405824</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>188170.9114600567</v>
+      </c>
+      <c r="E7">
         <v>1286870.489265008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46410.22106174153</v>
-      </c>
-      <c r="F7">
-        <v>188170.9114600567</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68587.4299433313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.825192103924113E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.494884556048063E-07</v>
+      </c>
+      <c r="E7">
         <v>4.041221359607283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.224687486757723E-09</v>
-      </c>
-      <c r="F7">
-        <v>9.494884556048063E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2153884087013818</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.433474203149826</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164985.5386634105</v>
+      </c>
+      <c r="E7">
         <v>1269588.760725652</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40758.86348596797</v>
-      </c>
-      <c r="F7">
-        <v>164985.5386634105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67666.35097277407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.90118464198431</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>159362.854373333</v>
+      </c>
+      <c r="E7">
         <v>1248325.882393494</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37386.5770861983</v>
-      </c>
-      <c r="F7">
-        <v>159362.854373333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66533.0852788553</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.508963360537552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>162451.7198108566</v>
+      </c>
+      <c r="E7">
         <v>1225395.861046132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34901.68429546437</v>
-      </c>
-      <c r="F7">
-        <v>162451.7198108566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65310.96444705386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.303158903628876</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>174094.3960229516</v>
+      </c>
+      <c r="E7">
         <v>1203140.562412322</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33597.82334894225</v>
-      </c>
-      <c r="F7">
-        <v>174094.3960229516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64124.80488504061</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.589635916432273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201067.3782377585</v>
+      </c>
+      <c r="E7">
         <v>1183782.11515987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35412.78010294691</v>
-      </c>
-      <c r="F7">
-        <v>201067.3782377585</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63093.04127260626</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.52291833036212</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>244967.6394589626</v>
+      </c>
+      <c r="E7">
         <v>1169257.939045804</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41325.53102135383</v>
-      </c>
-      <c r="F7">
-        <v>244967.6394589626</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62318.93391680148</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.000858283394164</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>301541.2656125819</v>
+      </c>
+      <c r="E7">
         <v>1161054.723693791</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50688.9248710716</v>
-      </c>
-      <c r="F7">
-        <v>301541.2656125819</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61881.72017776581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.786636067384068</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>364921.1561284258</v>
+      </c>
+      <c r="E7">
         <v>1160069.341906331</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62002.60556917446</v>
-      </c>
-      <c r="F7">
-        <v>364921.1561284258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61829.20144734292</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.62732585502298</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>428734.3910525338</v>
+      </c>
+      <c r="E7">
         <v>1166527.643918545</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73664.1777470279</v>
-      </c>
-      <c r="F7">
-        <v>428734.3910525338</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62173.41505742316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.24402261204345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>483934.5767024594</v>
+      </c>
+      <c r="E7">
         <v>1179982.805778451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83906.65643534571</v>
-      </c>
-      <c r="F7">
-        <v>483934.5767024594</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62890.54625216334</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.885874364398443E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.285961975726676E-05</v>
+      </c>
+      <c r="E7">
         <v>10.49113123213183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.828327207694119E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.285961975726676E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5591547357816181</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.31578321891837</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>519026.417398468</v>
+      </c>
+      <c r="E7">
         <v>1199396.272072168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90696.72706994395</v>
-      </c>
-      <c r="F7">
-        <v>519026.417398468</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63925.24226119064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.7504330715144</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530405.792897218</v>
+      </c>
+      <c r="E7">
         <v>1223284.583613857</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93450.42335390259</v>
-      </c>
-      <c r="F7">
-        <v>530405.792897218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65198.43789975552</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.73242555455748</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>524052.7536205587</v>
+      </c>
+      <c r="E7">
         <v>1249902.365094374</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93336.33788434265</v>
-      </c>
-      <c r="F7">
-        <v>524052.7536205587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66617.10841692977</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.49864298506377</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>507628.1275953149</v>
+      </c>
+      <c r="E7">
         <v>1277429.768983531</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91855.22339868452</v>
-      </c>
-      <c r="F7">
-        <v>507628.1275953149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68084.25985253979</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.17432793063714</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>485037.9681855742</v>
+      </c>
+      <c r="E7">
         <v>1304139.611559812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89800.54615705549</v>
-      </c>
-      <c r="F7">
-        <v>485037.9681855742</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69507.83702816097</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.70043976685202</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>454500.5688525235</v>
+      </c>
+      <c r="E7">
         <v>1328529.946290933</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86798.25806738279</v>
-      </c>
-      <c r="F7">
-        <v>454500.5688525235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70807.78942323111</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.93844282503797</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>412738.0540078749</v>
+      </c>
+      <c r="E7">
         <v>1349417.273504499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81970.67527970047</v>
-      </c>
-      <c r="F7">
-        <v>412738.0540078749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71921.03905006974</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.80268923404621</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>359560.9524059942</v>
+      </c>
+      <c r="E7">
         <v>1365991.199531266</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74775.18119560723</v>
-      </c>
-      <c r="F7">
-        <v>359560.9524059942</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72804.39366868108</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.40831709752659</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302108.0267218545</v>
+      </c>
+      <c r="E7">
         <v>1377833.982984864</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65941.22589145521</v>
-      </c>
-      <c r="F7">
-        <v>302108.0267218545</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73435.58856143332</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.067341284775397</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>253329.4262353757</v>
+      </c>
+      <c r="E7">
         <v>1384909.408277477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57445.55957431185</v>
-      </c>
-      <c r="F7">
-        <v>253329.4262353757</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73812.6935153697</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
